--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay_g\Documents\GitHub\supervised-single-cell\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D354700D-6C02-423A-956C-A3515EC86D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="RNA Labels"/>
-    <sheet r:id="rId2" sheetId="2" name="WNN Labels"/>
+    <sheet name="Descriptive" sheetId="3" r:id="rId1"/>
+    <sheet name="RNA Labels" sheetId="1" r:id="rId2"/>
+    <sheet name="WNN Labels" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Model</t>
   </si>
@@ -165,13 +185,87 @@
   </si>
   <si>
     <t>wnn, train</t>
+  </si>
+  <si>
+    <t>\multicolumn{2}{c}{\textbf{Train}}</t>
+  </si>
+  <si>
+    <t>\multicolumn{2}{c}{\textbf{Test}}</t>
+  </si>
+  <si>
+    <t>\textbf{Mean N (SD)}</t>
+  </si>
+  <si>
+    <t>\textbf{Proportion}</t>
+  </si>
+  <si>
+    <t>\textbf{Mean (SD)}</t>
+  </si>
+  <si>
+    <t>\textbf{PBMC}</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} B intermediate</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} B naive</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD14 Mono</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD16 Mono</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD4 Naive</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD4 TCM</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD4 TEM</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD8 Naive</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} CD8 TEM</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} NK</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} Plasmablast</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} cDC2</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} dnT</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} pDC</t>
+  </si>
+  <si>
+    <t>\textbf{Lymphoma}</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} Tumour B</t>
+  </si>
+  <si>
+    <t>\hspace{0.5cm} Healthy B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,71 +315,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -337,71 +419,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,7 +511,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -452,11 +534,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -465,13 +547,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -481,7 +563,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -490,7 +572,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -499,7 +581,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -507,10 +589,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -575,50 +657,390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3F5C38-4784-4A63-AF84-C059FC799E5C}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>455.3</v>
+      </c>
+      <c r="C4" s="19">
+        <f>(B4/$B$18)*100</f>
+        <v>4.5217995828781401</v>
+      </c>
+      <c r="D4">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="E4" s="19">
+        <f>(D4/$D$18)*100</f>
+        <v>4.3036121054344276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="C5" s="19">
+        <f t="shared" ref="C5:E17" si="0">(B5/$B$18)*100</f>
+        <v>3.1045784089780515</v>
+      </c>
+      <c r="D5">
+        <v>115.4</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" ref="E5:E17" si="1">(D5/$D$18)*100</f>
+        <v>3.1294066601583683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>2871.1</v>
+      </c>
+      <c r="C6" s="19">
+        <f t="shared" si="0"/>
+        <v>28.514251663521694</v>
+      </c>
+      <c r="D6">
+        <v>1043.8</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="1"/>
+        <v>28.305673066493103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>405.8</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" si="0"/>
+        <v>4.030191677425762</v>
+      </c>
+      <c r="D7">
+        <v>162.1</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="1"/>
+        <v>4.3958129949018323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>1977.2</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(B8/$B$18)*100</f>
+        <v>19.636508094150358</v>
+      </c>
+      <c r="D8">
+        <v>713.6</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
+        <v>19.351339624688141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>948.1</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>9.4160293971595976</v>
+      </c>
+      <c r="D9">
+        <v>352.5</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="1"/>
+        <v>9.5590628050764703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>95.7</v>
+      </c>
+      <c r="C10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.95044195054126512</v>
+      </c>
+      <c r="D10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0494630654083954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1383.9</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="0"/>
+        <v>13.744165259708014</v>
+      </c>
+      <c r="D11">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="1"/>
+        <v>13.916910727844666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>903.7</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="0"/>
+        <v>8.9750720031780702</v>
+      </c>
+      <c r="D12">
+        <v>337</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
+        <v>9.1387352207397736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>415.6</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" si="0"/>
+        <v>4.1275201112324948</v>
+      </c>
+      <c r="D13">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
+        <v>4.0215858552988388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>14.9</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.14797894527758462</v>
+      </c>
+      <c r="D14">
+        <v>4.8</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1301659616010413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>178.9</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7767404906147577</v>
+      </c>
+      <c r="D15">
+        <v>60.8</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="1"/>
+        <v>1.6487688469465231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>13.7</v>
+      </c>
+      <c r="C16" s="19">
+        <f>(B16/$B$18)*100</f>
+        <v>0.13606117787267849</v>
+      </c>
+      <c r="D16">
+        <v>5.4</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14643670680117149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>92.5</v>
+      </c>
+      <c r="C17" s="19">
+        <f>(B17/$B$18)*100</f>
+        <v>0.91866123746151529</v>
+      </c>
+      <c r="D17">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>0.90302635860722391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f>SUM(B4:B17)</f>
+        <v>10069.000000000002</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D4:D17)</f>
+        <v>3687.6000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView zoomScale="73" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="17" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="31" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -653,7 +1075,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -694,7 +1116,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -745,7 +1167,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -756,37 +1178,43 @@
         <v>0.875</v>
       </c>
       <c r="D4" s="4">
-        <f>B4-C4</f>
+        <f t="shared" ref="D4:D31" si="0">B4-C4</f>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="F4" s="4">
-        <f>E4-B4</f>
+        <f t="shared" ref="F4:F31" si="1">E4-B4</f>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="5">
-        <f>G4-H4</f>
+        <f t="shared" ref="I4:I29" si="2">G4-H4</f>
+        <v>0</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="5">
-        <f>J4-G4</f>
+        <f t="shared" ref="K4:K29" si="3">J4-G4</f>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>0.874</v>
       </c>
       <c r="M4" s="4">
-        <v>0.842</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="N4" s="4">
-        <f>L4-M4</f>
+        <f t="shared" ref="N4:N31" si="4">L4-M4</f>
+        <v>3.2000000000000028E-2</v>
       </c>
       <c r="O4" s="4">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="P4" s="4">
-        <f>O4-L4</f>
+        <f t="shared" ref="P4:P31" si="5">O4-L4</f>
+        <v>2.8000000000000025E-2</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
@@ -804,48 +1232,54 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C5" s="4">
-        <v>0.869</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D5" s="4">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F5" s="4">
-        <f>E5-B5</f>
+        <f t="shared" si="1"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="5">
-        <f>G5-H5</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="5">
-        <f>J5-G5</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="M5" s="4">
         <v>0.88</v>
       </c>
       <c r="N5" s="4">
-        <f>L5-M5</f>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="O5" s="4">
-        <v>0.928</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="P5" s="4">
-        <f>O5-L5</f>
+        <f t="shared" si="5"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
@@ -863,48 +1297,54 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="C6" s="4">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D6" s="4">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="F6" s="4">
-        <f>E6-B6</f>
+        <f t="shared" si="1"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="5">
-        <f>G6-H6</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="5">
-        <f>J6-G6</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0.869</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="M6" s="4">
-        <v>0.841</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="N6" s="4">
-        <f>L6-M6</f>
+        <f t="shared" si="4"/>
+        <v>2.8000000000000025E-2</v>
       </c>
       <c r="O6" s="4">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="P6" s="4">
-        <f>O6-L6</f>
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1"/>
@@ -922,48 +1362,54 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>0.859</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D7" s="4">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F7" s="4">
-        <f>E7-B7</f>
+        <f t="shared" si="1"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="5">
-        <f>G7-H7</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="5">
-        <f>J7-G7</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0.796</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="M7" s="4">
         <v>0.77</v>
       </c>
       <c r="N7" s="4">
-        <f>L7-M7</f>
+        <f t="shared" si="4"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="O7" s="4">
         <v>0.82</v>
       </c>
       <c r="P7" s="4">
-        <f>O7-L7</f>
+        <f t="shared" si="5"/>
+        <v>2.399999999999991E-2</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
@@ -981,48 +1427,54 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C8" s="4">
         <v>0.9</v>
       </c>
       <c r="D8" s="4">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="F8" s="4">
-        <f>E8-B8</f>
+        <f t="shared" si="1"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="5">
-        <f>G8-H8</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="5">
-        <f>J8-G8</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="M8" s="4">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="N8" s="4">
-        <f>L8-M8</f>
+        <f t="shared" si="4"/>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="O8" s="4">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="P8" s="4">
-        <f>O8-L8</f>
+        <f t="shared" si="5"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1"/>
@@ -1040,7 +1492,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1051,37 +1503,43 @@
         <v>0.874</v>
       </c>
       <c r="D9" s="4">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F9" s="4">
-        <f>E9-B9</f>
+        <f t="shared" si="1"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5">
-        <f>G9-H9</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5">
-        <f>J9-G9</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0.856</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M9" s="4">
-        <v>0.827</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="N9" s="4">
-        <f>L9-M9</f>
+        <f t="shared" si="4"/>
+        <v>2.9000000000000026E-2</v>
       </c>
       <c r="O9" s="4">
         <v>0.88</v>
       </c>
       <c r="P9" s="4">
-        <f>O9-L9</f>
+        <f t="shared" si="5"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1"/>
@@ -1099,48 +1557,54 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="C10" s="4">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D10" s="4">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="F10" s="4">
-        <f>E10-B10</f>
+        <f t="shared" si="1"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="5">
-        <f>G10-H10</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5">
-        <f>J10-G10</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="M10" s="4">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="N10" s="4">
-        <f>L10-M10</f>
+        <f t="shared" si="4"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="O10" s="4">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="P10" s="4">
-        <f>O10-L10</f>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1"/>
@@ -1158,48 +1622,54 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="4">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C11" s="4">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D11" s="4">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f>E11-B11</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="5">
-        <f>G11-H11</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5">
-        <f>J11-G11</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="M11" s="4">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="N11" s="4">
-        <f>L11-M11</f>
+        <f t="shared" si="4"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="O11" s="4">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="P11" s="4">
-        <f>O11-L11</f>
+        <f t="shared" si="5"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1"/>
@@ -1217,48 +1687,54 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C12" s="4">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D12" s="4">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F12" s="4">
-        <f>E12-B12</f>
+        <f t="shared" si="1"/>
+        <v>2.0999999999999908E-2</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="5">
-        <f>G12-H12</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5">
-        <f>J12-G12</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="M12" s="4">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="N12" s="4">
-        <f>L12-M12</f>
+        <f t="shared" si="4"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="O12" s="4">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="P12" s="4">
-        <f>O12-L12</f>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1"/>
@@ -1276,33 +1752,37 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C13" s="4">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D13" s="4">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="E13" s="4">
         <v>0.93</v>
       </c>
       <c r="F13" s="4">
-        <f>E13-B13</f>
+        <f t="shared" si="1"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="5">
-        <f>G13-H13</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="5">
-        <f>J13-G13</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
         <v>0.93</v>
@@ -1311,13 +1791,15 @@
         <v>0.91</v>
       </c>
       <c r="N13" s="4">
-        <f>L13-M13</f>
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="O13" s="4">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P13" s="4">
-        <f>O13-L13</f>
+        <f t="shared" si="5"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1"/>
@@ -1335,48 +1817,54 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C14" s="4">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D14" s="4">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="F14" s="4">
-        <f>E14-B14</f>
+        <f t="shared" si="1"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <f>G14-H14</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5">
-        <f>J14-G14</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="M14" s="4">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="N14" s="4">
-        <f>L14-M14</f>
+        <f t="shared" si="4"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="O14" s="4">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="P14" s="4">
-        <f>O14-L14</f>
+        <f t="shared" si="5"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1"/>
@@ -1394,48 +1882,54 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="4">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C15" s="4">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D15" s="4">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="F15" s="4">
-        <f>E15-B15</f>
+        <f t="shared" si="1"/>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <f>G15-H15</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5">
-        <f>J15-G15</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="M15" s="4">
-        <v>0.841</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="N15" s="4">
-        <f>L15-M15</f>
+        <f t="shared" si="4"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="O15" s="4">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="P15" s="4">
-        <f>O15-L15</f>
+        <f t="shared" si="5"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1"/>
@@ -1453,48 +1947,54 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="4">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C16" s="4">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D16" s="4">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="F16" s="4">
-        <f>E16-B16</f>
+        <f t="shared" si="1"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="5">
-        <f>G16-H16</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="5">
-        <f>J16-G16</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="M16" s="4">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="N16" s="4">
-        <f>L16-M16</f>
+        <f t="shared" si="4"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="O16" s="4">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="P16" s="4">
-        <f>O16-L16</f>
+        <f t="shared" si="5"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1"/>
@@ -1512,48 +2012,54 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="4">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="C17" s="4">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D17" s="4">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F17" s="4">
-        <f>E17-B17</f>
+        <f t="shared" si="1"/>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="5">
-        <f>G17-H17</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="5">
-        <f>J17-G17</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="M17" s="4">
         <v>0.878</v>
       </c>
       <c r="N17" s="4">
-        <f>L17-M17</f>
+        <f t="shared" si="4"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="O17" s="4">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="P17" s="4">
-        <f>O17-L17</f>
+        <f t="shared" si="5"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1"/>
@@ -1571,48 +2077,54 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C18" s="4">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D18" s="4">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F18" s="4">
-        <f>E18-B18</f>
+        <f t="shared" si="1"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="5">
-        <f>G18-H18</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="5">
-        <f>J18-G18</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M18" s="4">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="N18" s="4">
-        <f>L18-M18</f>
+        <f t="shared" si="4"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="O18" s="4">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="P18" s="4">
-        <f>O18-L18</f>
+        <f t="shared" si="5"/>
+        <v>2.0999999999999908E-2</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1"/>
@@ -1630,48 +2142,54 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C19" s="4">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D19" s="4">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F19" s="4">
-        <f>E19-B19</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="5">
-        <f>G19-H19</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="5">
-        <f>J19-G19</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="M19" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="N19" s="4">
-        <f>L19-M19</f>
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="O19" s="4">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="P19" s="4">
-        <f>O19-L19</f>
+        <f t="shared" si="5"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1"/>
@@ -1689,48 +2207,54 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C20" s="4">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D20" s="4">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="F20" s="4">
-        <f>E20-B20</f>
+        <f t="shared" si="1"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="5">
-        <f>G20-H20</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5">
-        <f>J20-G20</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="M20" s="4">
-        <v>0.883</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="N20" s="4">
-        <f>L20-M20</f>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="O20" s="4">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="P20" s="4">
-        <f>O20-L20</f>
+        <f t="shared" si="5"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1"/>
@@ -1748,48 +2272,54 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C21" s="4">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D21" s="4">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="F21" s="4">
-        <f>E21-B21</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="5">
-        <f>G21-H21</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5">
-        <f>J21-G21</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
         <v>0.93</v>
       </c>
       <c r="M21" s="4">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="N21" s="4">
-        <f>L21-M21</f>
+        <f t="shared" si="4"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="O21" s="4">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="P21" s="4">
-        <f>O21-L21</f>
+        <f t="shared" si="5"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1"/>
@@ -1807,48 +2337,54 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C22" s="4">
-        <v>0.886</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D22" s="4">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>0.928</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="F22" s="4">
-        <f>E22-B22</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="5">
-        <f>G22-H22</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5">
-        <f>J22-G22</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="M22" s="4">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="N22" s="4">
-        <f>L22-M22</f>
+        <f t="shared" si="4"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="O22" s="4">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="P22" s="4">
-        <f>O22-L22</f>
+        <f t="shared" si="5"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1"/>
@@ -1866,33 +2402,37 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C23" s="4">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D23" s="4">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E23" s="4">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="F23" s="4">
-        <f>E23-B23</f>
+        <f t="shared" si="1"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="5">
-        <f>G23-H23</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="5">
-        <f>J23-G23</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
         <v>0.93</v>
@@ -1901,13 +2441,15 @@
         <v>0.91</v>
       </c>
       <c r="N23" s="4">
-        <f>L23-M23</f>
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="O23" s="4">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="P23" s="4">
-        <f>O23-L23</f>
+        <f t="shared" si="5"/>
+        <v>1.6999999999999904E-2</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1"/>
@@ -1925,48 +2467,54 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="4">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C24" s="4">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D24" s="4">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E24" s="4">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F24" s="4">
-        <f>E24-B24</f>
+        <f t="shared" si="1"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="5">
-        <f>G24-H24</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="5">
-        <f>J24-G24</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>0.928</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="M24" s="4">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="N24" s="4">
-        <f>L24-M24</f>
+        <f t="shared" si="4"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="O24" s="4">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P24" s="4">
-        <f>O24-L24</f>
+        <f t="shared" si="5"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1"/>
@@ -1984,48 +2532,54 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="4">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C25" s="4">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D25" s="4">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E25" s="4">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="F25" s="4">
-        <f>E25-B25</f>
+        <f t="shared" si="1"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="5">
-        <f>G25-H25</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="5">
-        <f>J25-G25</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="M25" s="4">
-        <v>0.883</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="N25" s="4">
-        <f>L25-M25</f>
+        <f t="shared" si="4"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="O25" s="4">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="P25" s="4">
-        <f>O25-L25</f>
+        <f t="shared" si="5"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1"/>
@@ -2043,7 +2597,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
@@ -2051,46 +2605,52 @@
         <v>0.92</v>
       </c>
       <c r="C26" s="4">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D26" s="4">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E26" s="4">
         <v>0.94</v>
       </c>
       <c r="F26" s="4">
-        <f>E26-B26</f>
+        <f t="shared" si="1"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="G26" s="4">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H26" s="4">
         <v>0.9</v>
       </c>
       <c r="I26" s="4">
-        <f>G26-H26</f>
+        <f t="shared" si="2"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="J26" s="4">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="K26" s="4">
-        <f>J26-G26</f>
+        <f t="shared" si="3"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="L26" s="4">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="M26" s="4">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N26" s="4">
-        <f>L26-M26</f>
+        <f t="shared" si="4"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="O26" s="4">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="P26" s="4">
-        <f>O26-L26</f>
+        <f t="shared" si="5"/>
+        <v>2.1999999999999909E-2</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
@@ -2108,54 +2668,60 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="4">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="C27" s="4">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D27" s="4">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="E27" s="4">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="F27" s="4">
-        <f>E27-B27</f>
+        <f t="shared" si="1"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="G27" s="4">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="H27" s="4">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="I27" s="4">
-        <f>G27-H27</f>
+        <f t="shared" si="2"/>
+        <v>1.6999999999999904E-2</v>
       </c>
       <c r="J27" s="4">
         <v>0.96</v>
       </c>
       <c r="K27" s="4">
-        <f>J27-G27</f>
+        <f t="shared" si="3"/>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="L27" s="4">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="M27" s="4">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="N27" s="4">
-        <f>L27-M27</f>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="O27" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="P27" s="4">
-        <f>O27-L27</f>
+        <f t="shared" si="5"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
@@ -2173,54 +2739,60 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="4">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C28" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D28" s="4">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="E28" s="4">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="F28" s="4">
-        <f>E28-B28</f>
+        <f t="shared" si="1"/>
+        <v>1.5999999999999903E-2</v>
       </c>
       <c r="G28" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H28" s="4">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I28" s="4">
-        <f>G28-H28</f>
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J28" s="4">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="K28" s="4">
-        <f>J28-G28</f>
+        <f t="shared" si="3"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="L28" s="4">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="M28" s="4">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="N28" s="4">
-        <f>L28-M28</f>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="O28" s="4">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="P28" s="4">
-        <f>O28-L28</f>
+        <f t="shared" si="5"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1"/>
@@ -2238,7 +2810,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>34</v>
       </c>
@@ -2246,46 +2818,52 @@
         <v>0.94</v>
       </c>
       <c r="C29" s="4">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D29" s="4">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
+        <v>2.0999999999999908E-2</v>
       </c>
       <c r="E29" s="4">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="F29" s="4">
-        <f>E29-B29</f>
+        <f t="shared" si="1"/>
+        <v>1.7000000000000015E-2</v>
       </c>
       <c r="G29" s="4">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="H29" s="4">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="I29" s="4">
-        <f>G29-H29</f>
+        <f t="shared" si="2"/>
+        <v>2.0999999999999908E-2</v>
       </c>
       <c r="J29" s="4">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="K29" s="4">
-        <f>J29-G29</f>
+        <f t="shared" si="3"/>
+        <v>1.7000000000000015E-2</v>
       </c>
       <c r="L29" s="11">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="M29" s="4">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="N29" s="4">
-        <f>L29-M29</f>
+        <f t="shared" si="4"/>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="O29" s="4">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="P29" s="4">
-        <f>O29-L29</f>
+        <f t="shared" si="5"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
@@ -2303,7 +2881,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>35</v>
       </c>
@@ -2311,16 +2889,18 @@
         <v>0.91</v>
       </c>
       <c r="C30" s="4">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D30" s="4">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="E30" s="4">
         <v>0.93</v>
       </c>
       <c r="F30" s="4">
-        <f>E30-B30</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2328,19 +2908,21 @@
       <c r="J30" s="3"/>
       <c r="K30" s="2"/>
       <c r="L30" s="4">
-        <v>0.843</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="M30" s="4">
-        <v>0.813</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="N30" s="4">
-        <f>L30-M30</f>
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="O30" s="4">
         <v>0.873</v>
       </c>
       <c r="P30" s="4">
-        <f>O30-L30</f>
+        <f t="shared" si="5"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1"/>
@@ -2358,24 +2940,26 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C31" s="4">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D31" s="4">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E31" s="4">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F31" s="4">
-        <f>E31-B31</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2383,19 +2967,21 @@
       <c r="J31" s="3"/>
       <c r="K31" s="2"/>
       <c r="L31" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="M31" s="4">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="N31" s="4">
-        <f>L31-M31</f>
+        <f t="shared" si="4"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="O31" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="P31" s="4">
-        <f>O31-L31</f>
+        <f t="shared" si="5"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
@@ -2413,7 +2999,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2446,7 +3032,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2479,7 +3065,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2512,7 +3098,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2545,7 +3131,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2578,7 +3164,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2611,7 +3197,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2644,7 +3230,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2677,7 +3263,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2710,7 +3296,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2743,7 +3329,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2776,7 +3362,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2809,7 +3395,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
@@ -2844,16 +3430,16 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
-      <c r="B45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="B45" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="3"/>
@@ -2879,24 +3465,24 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="12"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -2918,7 +3504,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -2963,7 +3549,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>12</v>
       </c>
@@ -2971,31 +3557,35 @@
         <v>0.9</v>
       </c>
       <c r="C48" s="4">
-        <f>B48-D48</f>
+        <f t="shared" ref="C48:C57" si="6">B48-D48</f>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="D48" s="4">
         <v>0.875</v>
       </c>
       <c r="E48" s="4">
-        <f>F48-B48</f>
+        <f t="shared" ref="E48:E57" si="7">F48-B48</f>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="F48" s="4">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="G48" s="4">
         <v>0.874</v>
       </c>
       <c r="H48" s="4">
-        <f>G48-I48</f>
+        <f t="shared" ref="H48:H57" si="8">G48-I48</f>
+        <v>3.2000000000000028E-2</v>
       </c>
       <c r="I48" s="4">
-        <v>0.842</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="J48" s="4">
-        <f>K48-G48</f>
+        <f t="shared" ref="J48:J57" si="9">K48-G48</f>
+        <v>2.8000000000000025E-2</v>
       </c>
       <c r="K48" s="4">
-        <v>0.902</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -3018,39 +3608,43 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="4">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="C49" s="4">
-        <f>B49-D49</f>
+        <f t="shared" si="6"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>0.869</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E49" s="4">
-        <f>F49-B49</f>
+        <f t="shared" si="7"/>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="F49" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G49" s="4">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H49" s="4">
-        <f>G49-I49</f>
+        <f t="shared" si="8"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="I49" s="4">
         <v>0.88</v>
       </c>
       <c r="J49" s="4">
-        <f>K49-G49</f>
+        <f t="shared" si="9"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="K49" s="4">
-        <v>0.928</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -3073,39 +3667,43 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="4">
-        <v>0.924</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="C50" s="4">
-        <f>B50-D50</f>
+        <f t="shared" si="6"/>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E50" s="4">
-        <f>F50-B50</f>
+        <f t="shared" si="7"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="F50" s="4">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="G50" s="4">
-        <v>0.869</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="H50" s="4">
-        <f>G50-I50</f>
+        <f t="shared" si="8"/>
+        <v>2.8000000000000025E-2</v>
       </c>
       <c r="I50" s="4">
-        <v>0.841</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="J50" s="4">
-        <f>K50-G50</f>
+        <f t="shared" si="9"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="K50" s="4">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -3128,36 +3726,40 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="4">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C51" s="4">
-        <f>B51-D51</f>
+        <f t="shared" si="6"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>0.859</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E51" s="4">
-        <f>F51-B51</f>
+        <f t="shared" si="7"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="F51" s="4">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G51" s="4">
-        <v>0.796</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="H51" s="4">
-        <f>G51-I51</f>
+        <f t="shared" si="8"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="I51" s="4">
         <v>0.77</v>
       </c>
       <c r="J51" s="4">
-        <f>K51-G51</f>
+        <f t="shared" si="9"/>
+        <v>2.399999999999991E-2</v>
       </c>
       <c r="K51" s="4">
         <v>0.82</v>
@@ -3183,39 +3785,43 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="4">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C52" s="4">
-        <f>B52-D52</f>
+        <f t="shared" si="6"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="D52" s="4">
         <v>0.9</v>
       </c>
       <c r="E52" s="4">
-        <f>F52-B52</f>
+        <f t="shared" si="7"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="F52" s="4">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="G52" s="4">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="H52" s="4">
-        <f>G52-I52</f>
+        <f t="shared" si="8"/>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="I52" s="4">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="J52" s="4">
-        <f>K52-G52</f>
+        <f t="shared" si="9"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="K52" s="4">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -3238,7 +3844,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>17</v>
       </c>
@@ -3246,28 +3852,32 @@
         <v>0.9</v>
       </c>
       <c r="C53" s="4">
-        <f>B53-D53</f>
+        <f t="shared" si="6"/>
+        <v>2.6000000000000023E-2</v>
       </c>
       <c r="D53" s="4">
         <v>0.874</v>
       </c>
       <c r="E53" s="4">
-        <f>F53-B53</f>
+        <f t="shared" si="7"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="F53" s="4">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G53" s="4">
-        <v>0.856</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="H53" s="4">
-        <f>G53-I53</f>
+        <f t="shared" si="8"/>
+        <v>2.9000000000000026E-2</v>
       </c>
       <c r="I53" s="4">
-        <v>0.827</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="J53" s="4">
-        <f>K53-G53</f>
+        <f t="shared" si="9"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="K53" s="4">
         <v>0.88</v>
@@ -3293,7 +3903,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>32</v>
       </c>
@@ -3301,31 +3911,35 @@
         <v>0.92</v>
       </c>
       <c r="C54" s="4">
-        <f>B54-D54</f>
+        <f t="shared" si="6"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E54" s="4">
-        <f>F54-B54</f>
+        <f t="shared" si="7"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="F54" s="4">
         <v>0.94</v>
       </c>
       <c r="G54" s="4">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H54" s="4">
-        <f>G54-I54</f>
+        <f t="shared" si="8"/>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="I54" s="4">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J54" s="4">
-        <f>K54-G54</f>
+        <f t="shared" si="9"/>
+        <v>2.1999999999999909E-2</v>
       </c>
       <c r="K54" s="4">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -3348,39 +3962,43 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="4">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="C55" s="4">
-        <f>B55-D55</f>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>0.917</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="E55" s="4">
-        <f>F55-B55</f>
+        <f t="shared" si="7"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="F55" s="4">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G55" s="4">
-        <v>0.914</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="H55" s="4">
-        <f>G55-I55</f>
+        <f t="shared" si="8"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="I55" s="4">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J55" s="4">
-        <f>K55-G55</f>
+        <f t="shared" si="9"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="K55" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -3403,39 +4021,46 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="4">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="C56" s="4">
-        <f>B56-D56</f>
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="E56" s="4">
-        <f>F56-B56</f>
+        <f t="shared" si="7"/>
+        <v>1.5999999999999903E-2</v>
       </c>
       <c r="F56" s="4">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G56" s="4">
         <f>L28</f>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H56" s="4">
-        <f>G56-I56</f>
+        <f t="shared" si="8"/>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="I56" s="4">
         <f>M28</f>
+        <v>0.90400000000000003</v>
       </c>
       <c r="J56" s="4">
-        <f>K56-G56</f>
+        <f t="shared" si="9"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="K56" s="4">
         <f>O28</f>
+        <v>0.94899999999999995</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -3458,7 +4083,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>34</v>
       </c>
@@ -3466,31 +4091,38 @@
         <v>0.94</v>
       </c>
       <c r="C57" s="4">
-        <f>B57-D57</f>
+        <f t="shared" si="6"/>
+        <v>2.0999999999999908E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="E57" s="4">
-        <f>F57-B57</f>
+        <f t="shared" si="7"/>
+        <v>1.7000000000000015E-2</v>
       </c>
       <c r="F57" s="4">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="G57" s="11">
         <f>L29</f>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H57" s="4">
-        <f>G57-I57</f>
+        <f t="shared" si="8"/>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="I57" s="4">
         <f>M29</f>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J57" s="4">
-        <f>K57-G57</f>
+        <f t="shared" si="9"/>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="K57" s="4">
         <f>O29</f>
+        <v>0.95399999999999996</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -3515,7 +4147,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3552,7 +4184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3585,7 +4217,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3618,7 +4250,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3651,7 +4283,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3684,7 +4316,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3717,7 +4349,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3750,7 +4382,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3783,7 +4415,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3816,7 +4448,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3849,7 +4481,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3882,7 +4514,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3915,7 +4547,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3948,7 +4580,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3981,7 +4613,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4014,7 +4646,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4047,7 +4679,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4080,7 +4712,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4113,7 +4745,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4146,7 +4778,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4179,7 +4811,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4212,7 +4844,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4245,7 +4877,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4278,7 +4910,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4311,7 +4943,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>41</v>
       </c>
@@ -4346,7 +4978,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -4387,7 +5019,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>1</v>
       </c>
@@ -4430,7 +5062,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>2</v>
       </c>
@@ -4465,7 +5097,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>3</v>
       </c>
@@ -4500,7 +5132,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>4</v>
       </c>
@@ -4535,7 +5167,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>5</v>
       </c>
@@ -4570,7 +5202,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>6</v>
       </c>
@@ -4605,7 +5237,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>7</v>
       </c>
@@ -4640,7 +5272,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>8</v>
       </c>
@@ -4675,7 +5307,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>9</v>
       </c>
@@ -4690,25 +5322,25 @@
       <c r="J92" s="3"/>
       <c r="K92" s="2"/>
       <c r="L92" s="10"/>
-      <c r="M92" s="14" t="s">
+      <c r="M92" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N92" s="14" t="s">
+      <c r="N92" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O92" s="15" t="s">
+      <c r="O92" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P92" s="15" t="s">
+      <c r="P92" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q92" s="15" t="s">
+      <c r="Q92" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R92" s="16" t="s">
+      <c r="R92" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S92" s="16" t="s">
+      <c r="S92" s="14" t="s">
         <v>48</v>
       </c>
       <c r="T92" s="1"/>
@@ -4724,7 +5356,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>10</v>
       </c>
@@ -4739,7 +5371,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="2"/>
       <c r="L93" s="10"/>
-      <c r="M93" s="14" t="s">
+      <c r="M93" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N93" s="10"/>
@@ -4761,7 +5393,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>11</v>
       </c>
@@ -4776,7 +5408,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="2"/>
       <c r="L94" s="10"/>
-      <c r="M94" s="14" t="s">
+      <c r="M94" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N94" s="10"/>
@@ -4800,7 +5432,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>12</v>
       </c>
@@ -4815,7 +5447,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="2"/>
       <c r="L95" s="10"/>
-      <c r="M95" s="14" t="s">
+      <c r="M95" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N95" s="10"/>
@@ -4839,7 +5471,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>13</v>
       </c>
@@ -4854,7 +5486,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="2"/>
       <c r="L96" s="10"/>
-      <c r="M96" s="14" t="s">
+      <c r="M96" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N96" s="10"/>
@@ -4876,7 +5508,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>14</v>
       </c>
@@ -4891,7 +5523,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="2"/>
       <c r="L97" s="10"/>
-      <c r="M97" s="14" t="s">
+      <c r="M97" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N97" s="10"/>
@@ -4913,7 +5545,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>15</v>
       </c>
@@ -4928,7 +5560,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="2"/>
       <c r="L98" s="10"/>
-      <c r="M98" s="14" t="s">
+      <c r="M98" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N98" s="10"/>
@@ -4950,7 +5582,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>16</v>
       </c>
@@ -4965,7 +5597,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="2"/>
       <c r="L99" s="10"/>
-      <c r="M99" s="14" t="s">
+      <c r="M99" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N99" s="10"/>
@@ -4987,7 +5619,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>17</v>
       </c>
@@ -5002,7 +5634,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="2"/>
       <c r="L100" s="10"/>
-      <c r="M100" s="14" t="s">
+      <c r="M100" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N100" s="10"/>
@@ -5024,7 +5656,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>18</v>
       </c>
@@ -5039,7 +5671,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="2"/>
       <c r="L101" s="10"/>
-      <c r="M101" s="14" t="s">
+      <c r="M101" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N101" s="10"/>
@@ -5061,7 +5693,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>19</v>
       </c>
@@ -5074,25 +5706,25 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="15" t="s">
+      <c r="K102" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L102" s="14" t="s">
+      <c r="L102" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M102" s="14" t="s">
+      <c r="M102" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N102" s="14" t="s">
+      <c r="N102" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O102" s="15" t="s">
+      <c r="O102" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P102" s="15" t="s">
+      <c r="P102" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q102" s="15" t="s">
+      <c r="Q102" s="13" t="s">
         <v>48</v>
       </c>
       <c r="R102" s="1"/>
@@ -5110,7 +5742,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>20</v>
       </c>
@@ -5123,7 +5755,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="15" t="s">
+      <c r="K103" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L103" s="4"/>
@@ -5147,7 +5779,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>21</v>
       </c>
@@ -5160,7 +5792,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="15" t="s">
+      <c r="K104" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L104" s="4"/>
@@ -5184,7 +5816,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5195,7 +5827,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="15" t="s">
+      <c r="K105" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L105" s="4"/>
@@ -5219,7 +5851,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5230,7 +5862,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="15" t="s">
+      <c r="K106" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L106" s="4"/>
@@ -5254,7 +5886,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5265,7 +5897,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="15" t="s">
+      <c r="K107" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L107" s="4"/>
@@ -5289,7 +5921,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5300,7 +5932,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="15" t="s">
+      <c r="K108" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L108" s="4"/>
@@ -5324,7 +5956,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5335,7 +5967,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="15" t="s">
+      <c r="K109" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L109" s="5"/>
@@ -5359,7 +5991,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5370,7 +6002,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="15" t="s">
+      <c r="K110" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L110" s="4"/>
@@ -5394,7 +6026,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5405,7 +6037,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="15" t="s">
+      <c r="K111" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L111" s="4"/>
@@ -5429,7 +6061,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5440,7 +6072,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="15" t="s">
+      <c r="K112" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L112" s="4"/>
@@ -5464,7 +6096,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5475,7 +6107,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="15" t="s">
+      <c r="K113" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L113" s="4"/>
@@ -5499,7 +6131,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5510,7 +6142,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="15" t="s">
+      <c r="K114" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L114" s="4"/>
@@ -5534,7 +6166,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5545,7 +6177,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="15" t="s">
+      <c r="K115" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L115" s="4"/>
@@ -5579,8 +6211,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5588,27 +6220,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5628,7 +6257,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5654,7 +6283,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -5690,55 +6319,61 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C4" s="4">
-        <v>0.904</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D4" s="4">
-        <f>B4-C4</f>
+        <f t="shared" ref="D4:D10" si="0">B4-C4</f>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F4" s="4">
-        <f>E4-B4</f>
+        <f t="shared" ref="F4:F10" si="1">E4-B4</f>
+        <v>1.7999999999999905E-2</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>G4-H4</f>
+        <f t="shared" ref="I4:I10" si="2">G4-H4</f>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>J4-G4</f>
+        <f t="shared" ref="K4:K10" si="3">J4-G4</f>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="M4" s="4">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="N4" s="4">
-        <f>L4-M4</f>
+        <f t="shared" ref="N4:N10" si="4">L4-M4</f>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="O4" s="4">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="P4" s="4">
-        <f>O4-L4</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <f t="shared" ref="P4:P10" si="5">O4-L4</f>
+        <v>2.2999999999999909E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5746,234 +6381,270 @@
         <v>0.95</v>
       </c>
       <c r="C5" s="4">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D5" s="4">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F5" s="4">
-        <f>E5-B5</f>
+        <f t="shared" si="1"/>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f>G5-H5</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>J5-G5</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="M5" s="4">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="N5" s="4">
-        <f>L5-M5</f>
+        <f t="shared" si="4"/>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="O5" s="4">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="P5" s="4">
-        <f>O5-L5</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <f t="shared" si="5"/>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="C6" s="4">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D6" s="4">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F6" s="4">
-        <f>E6-B6</f>
+        <f t="shared" si="1"/>
+        <v>1.5999999999999903E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H6" s="4">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="I6" s="4">
-        <f>G6-H6</f>
+        <f t="shared" si="2"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="J6" s="4">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="K6" s="4">
-        <f>J6-G6</f>
+        <f t="shared" si="3"/>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="L6" s="4">
-        <v>0.919</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="M6" s="4">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="N6" s="4">
-        <f>L6-M6</f>
+        <f t="shared" si="4"/>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="O6" s="4">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="P6" s="4">
-        <f>O6-L6</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C7" s="4">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="D7" s="4">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
+        <v>1.8999999999999906E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F7" s="4">
-        <f>E7-B7</f>
+        <f t="shared" si="1"/>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="G7" s="4">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="H7" s="4">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="I7" s="4">
-        <f>G7-H7</f>
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J7" s="4">
-        <v>0.979</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="K7" s="4">
-        <f>J7-G7</f>
+        <f t="shared" si="3"/>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="L7" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="M7" s="4">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N7" s="4">
-        <f>L7-M7</f>
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="O7" s="4">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="P7" s="4">
-        <f>O7-L7</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="5">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="5">
-        <f>E8-B8</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="5">
-        <f>G8-H8</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="5">
-        <f>J8-G8</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <f>L8-M8</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="5">
-        <f>O8-L8</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="5">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5">
-        <f>E9-B9</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5">
-        <f>G9-H9</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="5">
-        <f>J9-G9</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <f>L9-M9</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="5">
-        <f>O9-L9</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="5">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="5">
-        <f>E10-B10</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="5">
-        <f>G10-H10</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="5">
-        <f>J10-G10</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <f>L10-M10</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="5">
-        <f>O10-L10</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
